--- a/app/misc_files/merge.xlsx
+++ b/app/misc_files/merge.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="Dialogue" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Walkthrough" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Quests" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="1642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="1819">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -984,7 +985,8 @@
     <t>&lt;speed=0&gt;How would you like to form a party alliance?&lt;select&gt;
 Fixed Party
 Search for Allies
-Don't Search&lt;select_end&gt;
+Don't Form Alliance
+&lt;select_end&gt;
 &lt;case 1&gt;
 &lt;close&gt;
 &lt;case 2&gt;
@@ -6628,7 +6630,7 @@
   </si>
   <si>
     <t>You've been asked to undertake a quest.
-Will you accept this quest?
+Will you acquiesce to this request?
 &lt;open_irai&gt;
 &lt;select&gt;
 Accept
@@ -9186,6 +9188,30 @@
     <t>Mysterious Tower Feralball</t>
   </si>
   <si>
+    <t>「……マジックバリアと　マホトーン。
+　やっかいな　魔法使いは　オレにまかせろ。</t>
+  </si>
+  <si>
+    <t>...Magic Barrier and Fizzle.
+Leave that pesky mage to me.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Gryphon</t>
+  </si>
+  <si>
+    <t>「やあ　魔闘士くん。
+　私のとくぎは　ベホイミだ！　あぶなくなったら
+　遠慮なく　ツボを　使ってくれたまえ！</t>
+  </si>
+  <si>
+    <t>Oh, it's you, the magic warrior! I can use
+Midheal to help you! Feel free to use my
+pot if you're feeling in a right pinch!</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Priest Knight</t>
+  </si>
+  <si>
     <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
 　魔闘士さん　おおきづち　知ってる？
 　ブラウニーとは　仲がいいみたいだね。</t>
@@ -9414,8 +9440,8 @@
   </si>
   <si>
     <t>&lt;pipipi_shigh&gt;Hee hee... Do you have a Bloodletter Sword?
-It's a rank 3 claymore. An eye for an eye,
-blood for blood.</t>
+It's a rank 3 greatsword. An eye for an eye,
+and blood for blood.</t>
   </si>
   <si>
     <t>Mysterious Tower Floor 24 hint</t>
@@ -9431,7 +9457,7 @@
   <si>
     <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
 Hey, you. Do you know Million Smile? It can
-make a laughing monster laugh even harder.
+make a smiling monster smile even bigger.
 &lt;br&gt;
 You can learn how to Million Smile with a
 Care Ring.</t>
@@ -9640,6 +9666,233 @@
   </si>
   <si>
     <t>Mysterious Tower exit</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+５階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+up to the 5th floor!</t>
+  </si>
+  <si>
+    <t>Mysterious Tower boss win</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+１０階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+up to the 10th floor!</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+１５階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+up to the 15th floor!</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+２０階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+up to the 20th floor!</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+２５階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+up to the 25th floor!</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+３０階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+up to the 30th floor!</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+３５階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+up to the 35th floor!</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+４０階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+up to the 40th floor!</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+４５階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+up to the 45th floor!</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+５０階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+up to the 50th floor!</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+５５階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+up to the 55th floor!</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+６０階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+up to the 60th floor!</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+６５階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+up to the 65th floor!</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+７０階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+up to the 70th floor!</t>
   </si>
   <si>
     <t>「新エテーネの村のまわりを　クンクンして
@@ -14318,8 +14571,7 @@
 say their farewells.</t>
   </si>
   <si>
-    <t>&lt;br&gt;
-「もう聞いたと思うけど　ゾーマという
+    <t>「もう聞いたと思うけど　ゾーマという
 　おそろしい大魔王が　現れて
 　この世界を　滅ぼそうとしているの……。
 &lt;br&gt;
@@ -14405,6 +14657,1056 @@
     <t>Subjugation NPC</t>
   </si>
   <si>
+    <t>地下水脈に　落とされてしまった！&lt;wait = 3000&gt;
+水かさが　どんどん増しているようだ！
+時間切れになる前に　出口を見つけて
+地下水脈から　脱出しよう！&lt;wait = 4000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color_yellow&gt;You and Fuura were dropped into the Water
+Vein!&lt;wait = 3000&gt;
+The water level seems to be increasing!
+Find a way to escape from the Water Vein
+before time runs out!&lt;wait = 4000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>V3 (BAD STRING)</t>
+  </si>
+  <si>
+    <t>「はぁい♪　アストルティアのアイドル
+　グローバルスターの　リポよ！
+　ドレスアップ好きのみんな　ごきげんよう。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>Hellooo! I'm Astoltia's idol and global star,
+Lipo! To all of those who enjoy dressing
+up, it's great to see you!&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>Lipo-chan</t>
+  </si>
+  <si>
+    <t>この旅の扉からは　いくつかの場所に
+移動できそうだ。
+どこへ　移動しますか？
+&lt;select&gt;
+入口の前
+東エリア
+おしゃれストリート
+妖精の井戸の前
+メギストリス城の前
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Using this teleportal, you can move to
+several different places. Where would
+you like to go?
+&lt;select&gt;
+Entrance
+East Area
+Fashion Street
+Fairy Well
+Megistris Castle
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Megistris west teleportal</t>
+  </si>
+  <si>
+    <t>この旅の扉からは　いくつかの場所に
+移動できそうだ。
+どこへ　移動しますか？
+&lt;select&gt;
+入口の前
+西エリア
+おしゃれストリート
+妖精の井戸の前
+メギストリス城の前
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Using this teleportal, you can move to
+several different places. Where would
+you like to go?
+&lt;select&gt;
+Entrance
+West Area
+Fashion Street
+Fairy Well
+Megistris Castle
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Megistris east teleportal</t>
+  </si>
+  <si>
+    <t>この旅の扉からは　いくつかの場所に
+移動できそうだ。
+どこへ　移動しますか？
+&lt;select&gt;
+東エリア
+西エリア
+おしゃれストリート
+妖精の井戸の前
+メギストリス城の前
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Using this teleportal, you can move to
+several different places. Where would
+you like to go?
+&lt;select&gt;
+East Area
+West Area
+Fashion Street
+Fairy Well
+Megistris Castle
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Megistris main teleporter</t>
+  </si>
+  <si>
+    <t>「ショップポイントを　受け取る？
+&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>Do you want your Shop Points now?
+&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>Shop Points NPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　今　ボクが読んだ辺りを　探して
+　写真を　撮ってきてほしいんだ。
+&lt;br&gt;
+「うまく　写真が撮れたら　だいじなものに
+　入るはずだから　その状態で
+　戻ってきてくれないかな？　よろしく頼むよ。</t>
+  </si>
+  <si>
+    <t>I'd like you to head over to the area I just
+read about and take a photograph.
+&lt;br&gt;
+If you manage to take a good enough photo,
+I'm sure you can find something important.
+Could you please bring one to me?</t>
+  </si>
+  <si>
+    <t>Sacred Mysteries (BAD STRING)</t>
+  </si>
+  <si>
+    <t>嵐の神獣の写真（だいじなもの）を　手に入れた！&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>You successfully took a photograph!
+&lt;br&gt;
+You received the
+Divine Storm Beast Photo (Key Item)!</t>
+  </si>
+  <si>
+    <t>炎の神獣の写真（だいじなもの）を　手に入れた！&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>You successfully took a photograph!
+&lt;br&gt;
+You received the
+Divine Fire Beast Photo (Key Item)!</t>
+  </si>
+  <si>
+    <t>氷の神獣の写真（だいじなもの）を　手に入れた！&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>You successfully took a photograph!
+&lt;br&gt;
+You received the
+Divine Ice Beast Photo (Key Item)!</t>
+  </si>
+  <si>
+    <t>水の神獣の写真（だいじなもの）を　手に入れた！&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>You successfully took a photograph!
+&lt;br&gt;
+You received the
+Divine Water Beast Photo (Key Item)!</t>
+  </si>
+  <si>
+    <t>闇の神獣の写真（だいじなもの）を　手に入れた！&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>You successfully took a photograph!
+&lt;br&gt;
+You received the
+Divine Dark Beast Photo (Key Item)!</t>
+  </si>
+  <si>
+    <t>炎の秘蹟の写真（だいじなもの）を　手に入れた！&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>You successfully took a photograph!
+&lt;br&gt;
+You received the
+Fire Sacrament Photo (Key Item)!</t>
+  </si>
+  <si>
+    <t>氷の秘蹟の写真（だいじなもの）を　手に入れた！&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>You successfully took a photograph!
+&lt;br&gt;
+You received the
+Ice Sacrament Photo (Key Item)!</t>
+  </si>
+  <si>
+    <t>水の秘蹟の写真（だいじなもの）を　手に入れた！&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>You successfully took a photograph!
+&lt;br&gt;
+You received the
+Water Sacrament Photo (Key Item)!</t>
+  </si>
+  <si>
+    <t>闇の秘蹟の写真（だいじなもの）を　手に入れた！&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>You successfully took a photograph!
+&lt;br&gt;
+You received the
+Dark Sacrament Photo (Key Item)!</t>
+  </si>
+  <si>
+    <t>嵐の秘蹟の写真（だいじなもの）を　手に入れた！&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>You successfully took a photograph!
+&lt;br&gt;
+You received the
+Storm Sacrament Photo (Key Item)!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　うまく　写真を　撮れたようだね？
+　その写真を　ボクに　渡してくれないか？</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_happy_lv1&gt;&lt;end_attr&gt;Oh! It looks like you were able to take a
+pretty nice photo. Could I please have it?</t>
+  </si>
+  <si>
+    <t>は　調査隊のカガミだねっ！</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_happy_lv3&gt;&lt;end_attr&gt;Thanks for always helping us with
+our investigations! You're the looking glass
+of the team!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　神聖秘文の答えが　わかったのかな。
+　答えがわかったなら　ボクにも教えてくれない？
+&lt;br&gt;
+「ただし　回答は　ひとつしか受け付けられないし
+　一度　回答した後　何分かは　次の神聖秘文に
+　挑戦することもできないから　注意して。
+&lt;br&gt;
+「回答をせずに　時間切れになった人がいた場合
+　失敗となるから　それも　気をつけてね。
+　本当に　神聖秘文を唱えるってことで　いい？&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>Could it be that you've figured out the answer
+to the sacred text? If you do, could you
+please tell me as well?
+&lt;br&gt;
+However, once you tell me, that's it. You only
+get one answer. After that, you can't attempt
+solving another sacred text for some time.
+&lt;br&gt;
+Also, if you fail to answer within the time
+limit, the investigation will be considered
+failed. Please keep that in mind. Well?&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>「わかったよ。キミが　パーティを組んでいる場合
+　自分が　回答を間違えても　仲間の誰かが
+　正解すればいいから　よく考えて　答えてね。</t>
+  </si>
+  <si>
+    <t>Right. If you are in a party, one of your
+companions can chant the right answer even if
+you get it wrong. Please answer carefully.</t>
+  </si>
+  <si>
+    <t>Sacred Mysteries</t>
+  </si>
+  <si>
+    <t>回答を　受け付けました！
+このまま　仲間の回答を　待ちます。&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>Your answer was accepted! Please wait
+for your party members' responses.&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>全員の回答を　受け付けました！</t>
+  </si>
+  <si>
+    <t>All answers have been accepted!</t>
+  </si>
+  <si>
+    <t>恵みの木の中の　恵みの園にいる
+サジェと　リルチェラの所へ　戻ろう。</t>
+  </si>
+  <si>
+    <t>Return to Lilcherat and Sajay at Gratia.</t>
+  </si>
+  <si>
+    <t>「２人で　参加するってことで　いいなら
+　挑戦する神聖秘文を　ボクに教えてよ。</t>
+  </si>
+  <si>
+    <t>It's all right if you two want to go together.
+Please let me know which sacred text
+you'd like to attempt.</t>
+  </si>
+  <si>
+    <t>It's all right if you three want to go
+together. Please let me know which
+sacred text you'd like to attempt.</t>
+  </si>
+  <si>
+    <t>It's all right if you four want to go
+together. Please let me know which
+sacred text you'd like to attempt.</t>
+  </si>
+  <si>
+    <t>すでに　解き明かしています。
+リプレイとなりますが　ふたたび　挑戦しますか？&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>You've already solved this sacred text.
+Are you all right with doing it again?&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>何が　したいんだい？
+&lt;select&gt;
+神聖秘文を解く
+サジェの考察を聞く
+説明を聞く
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>What do you want to do?
+&lt;select&gt;
+Solve Sacred Text
+Hear Sajay's Investigations
+Explanation
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　何が　したいんだい？
+&lt;select&gt;
+神聖秘文を唱える
+サジェの考察を聞く
+説明を聞く
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>What do you want to do?
+&lt;select&gt;
+Chant Sacred Text
+Hear Sajay's Investigations
+Explanation
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　ほかに　したいことはあるかい？
+&lt;select&gt;
+神聖秘文を解く
+サジェの考察を聞く
+説明を聞く
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Is there anything else you want to
+do?
+&lt;select&gt;
+Solve Sacred Text
+Hear Sajay's Investigations
+Explanation
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　ほかに　したいことはあるかい？
+&lt;select&gt;
+神聖秘文を唱える
+サジェの考察を聞く
+説明を聞く
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Is there anything else you want to
+do?
+&lt;select&gt;
+Chant Sacred Text
+Hear Sajay's Investigations
+Explanation
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;speed=0&gt;今のパーティ構成で　挑戦しますか？
+ただし　サポートなかまや　なかまモンスターは
+参加しません。
+&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;speed=0&gt;Go on ahead with your current party?
+You will not be able to take support
+companions or fellow monsters along.
+&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Boot camp? go alone</t>
+  </si>
+  <si>
+    <t>約40秒後に　自動的にバトルが開始します。
+対戦相手や味方のプレイヤーに対して　悪い言葉を
+使ったりせず　気持ちのよいバトルをしましょう！&lt;auto_bw_break=10000&gt;</t>
+  </si>
+  <si>
+    <t>The battle will begin in about 40 seconds.
+Use sportsmanlike conduct towards other
+players, and fight fairly!&lt;auto_bw_break=10000&gt;</t>
+  </si>
+  <si>
+    <t>Battle Grand Prix</t>
+  </si>
+  <si>
+    <t>&lt;speed=0&gt;今すぐに　スタート地点から復活すると
+奪われたポイントは　戻ってきませんが
+よろしいですか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;speed=0&gt;If you choose to revive yourself, you cannot
+get back the points that were taken from you.
+Proceed?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。
+旅の扉が現れているので　一定時間以内に
+そちらから　退出してください。</t>
+  </si>
+  <si>
+    <t>What a great fight! A teleportal has appeared
+that will allow you to leave, so please use
+it in a timely manner.</t>
+  </si>
+  <si>
+    <t>常闇の竜レグナードの封印に　成功した！
+竜牙石が　５個なくなった！
+&lt;auto_bw=5000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>The Dragonite that you were holding shone
+brightly and transformed into sharp fangs of
+light, each piercing into Regnad...
+&lt;auto_br=5000&gt;
+Regnad was successfully sealed away once
+more!
+Five of your Dragonites were consumed!
+&lt;auto_bw=5000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Everdark War Boss Win (BAD STRING)</t>
+  </si>
+  <si>
+    <t>ダークキングを　倒した！
+竜牙石が　５個なくなった！
+&lt;auto_bw=5000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>The Dragonite that you were holding shone
+brightly and transformed into sharp fangs of
+light, each piercing into Dark King Slime...
+&lt;auto_br=5000&gt;
+Dark King Slime was defeated once more!
+Five of your Dragonites were consumed!
+&lt;auto_bw=5000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>海冥主メイヴの　撃退に成功した！
+竜牙石が　５個なくなった！
+&lt;auto_bw=5000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>The Dragonite that you were holding shone
+brightly and transformed into sharp fangs of
+light, each piercing into Meiv...
+&lt;auto_br=5000&gt;
+Meiv was successfully driven back once more!
+Five of your Dragonites were consumed!
+&lt;auto_bw=5000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>「わたくし　魔塔銀行員のボクスでございます。
+　お客様が　魔塔で手に入れた　大切なゴールドは
+　責任をもって　お預かりさせて　いただきます。
+&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>My name is Bokks, and I am the banker here
+at the Mysterious Tower. I will make sure that
+your precious Gold is held safe and sound.
+&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>Mysterious Tower banker</t>
+  </si>
+  <si>
+    <t>カジノの階層を移動する
+エレベーターがある。
+どの階に　移動しますか？
+&lt;select&gt;
+３階
+１階
+カジノフロア移動
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>It's an elevator that you can use to move to
+different parts of the Casino.
+Which floor do you want to go to?
+&lt;select&gt;
+3F
+1F
+Change Casino Floor
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Casino elevator</t>
+  </si>
+  <si>
+    <t>カジノの階層を移動する
+エレベーターがある。
+どの階に　移動しますか？
+&lt;select&gt;
+２階
+１階
+カジノフロア移動
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>It's an elevator that you can use to move to
+different parts of the Casino.
+Which floor do you want to go to?
+&lt;select&gt;
+2F
+1F
+Change Casino Floor
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>カジノの階層を移動する
+エレベーターがある。
+どの階に　移動しますか？
+&lt;select 2&gt;
+３階
+２階
+カジノフロア移動
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>It's an elevator that you can use to move to
+different parts of the Casino.
+Which floor do you want to go to?
+&lt;select 2&gt;
+3F
+2F
+Change Casino Floor
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>今日の討伐報酬（紫色の宝箱）は
+もう入手済みだ。
+魔法の迷宮に　行きますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You've already received the daily purple chest
+reward.
+Go to the Magic Maze?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Magic Key</t>
+  </si>
+  <si>
+    <t>今日の討伐報酬（紫色の宝箱）は
+まだ　入手していない。
+魔法の迷宮に　行きますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You haven't yet received the daily purple
+chest reward.
+Go to the Magic Maze?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>あなたには　今　仲間がいます。
+仲間をさそって　魔法の迷宮へ行きますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You are currently in a party.
+Go to the Magic Maze with your party?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>「３３６時間の　使用制限つきのカードを
+　１枚だけ　あげるから
+　ほしいカードを　選んでね。
+&lt;select&gt;
+ベリアルカード
+ギュメイ将軍カード
+ムドーカード
+エビルプリーストカード
+究極邪教司祭カード
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>I'll give you one boss card with a 336 hour
+duration. Please choose the one you'd like!
+&lt;select&gt;
+Belial Card (Level 65)
+Goresby-Purrvis Card (Level 100)
+Murdaw Card (Level 116)
+Aamon Card (Level 124)
+Ultimate Aamon Card (Level 126)
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Pu-chan Card selection</t>
+  </si>
+  <si>
+    <t>「究極邪教司祭カードで　いいかしら？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You'd like the Ultimate Aamon Card, then?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>「ベリアルカードで　いいかしら？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You'd like the Belial Card Card, then?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>「ギュメイ将軍カードで　いいかしら？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You'd like the Goresby-Purrvis Card, then?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>「エビルプリーストカードで　いいかしら？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You'd like the Aamon Card, then?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>「ムドーカードで　いいかしら？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You'd like the Murdaw Card, then?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_happy_lv3&gt;&lt;end_attr&gt;「あら！　こんなところで
+　会えるなんて　びっくりです！
+&lt;br&gt;
+「お会いできて　うれしいです！
+　ふうせん三姉妹の長女　プーです。
+　毎月１０日は　テンの日なんですよ！
+&lt;br&gt;
+「テンの日は　みんなで 
+　アストルティアに　集まって
+　楽しく遊んでほしい日なのです！&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_happy_lv3&gt;&lt;end_attr&gt;Oh, hello! I'm quite surprised to
+see you here!
+&lt;br&gt;
+But I'm happy you came! My name is Pu, and
+I'm the eldest of the Three Balloon Sisters!
+Every 10th of the month is Ten Day!
+&lt;br&gt;
+On Ten Day, everyone in Astoltia gathers
+together to have an enjoyable and amazing
+day!&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>Pu-chan dialogue</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_lv1&gt;&lt;end_attr&gt;「テンの日に　出会えたあなたに
+　すてきなプレゼントを　差し上げます！</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_lv1&gt;&lt;end_attr&gt;I have a wonderful gift for those who meet
+me here on Ten Day!</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_happy_lv3&gt;&lt;end_attr&gt;「効果が切れる前に　みんなで遊んでね！
+&lt;br&gt;
+「それじゃ　わたしは　翌朝には旅立つけど 
+　また来月の１０日　テンの日になったら
+　ここにいるから　会いにきてねー！！</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_happy_lv3&gt;&lt;end_attr&gt;Make sure to have as much fun as
+you can with everyone before the effect wears
+off!
+&lt;br&gt;
+I'll be gone tomorrow when morning comes
+around, but don't worry! I'll be back again
+next Ten Day, so please come and see me!</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_sad_lv1&gt;&lt;end_attr&gt;「ごめんなさい。プレゼントは　１回だけなの！
+　また来月に　なったら
+　そのとき　会いにきてね！</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_sad_lv1&gt;&lt;end_attr&gt;I'm really sorry...but I can only give you
+one present. I'll be back again next month,
+so please come and see me then!</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_happy_lv3&gt;&lt;end_attr&gt;「ばくれちゅわ！！　毎月１０日は　テンの日！
+　なので　テンからの使者　クー見参！！
+　会いにきてくれて　ありがとう！
+&lt;br&gt;
+「テンの日は　みんなで
+　アストルティアに　集まって
+　楽しく遊んでほしい日なんだよ！&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_happy_lv3&gt;&lt;end_attr&gt;Ka-POW! It's the 10th of the month,
+Ten Day! I, the inTENse Ku, have arrived!
+&lt;br&gt;
+On Ten Day, everyone in Astoltia comes
+together to have an enjoyable and amazing
+time!&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>Ku-chan dialogue</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_happy_lv3&gt;&lt;end_attr&gt;「えっへへ　ばくれちゅわ～！！
+&lt;br&gt;
+「このあいさつ　クーのお気に入りなの。
+　パワフルで　エレガントで　キュートな
+　比類なき　あいさつだよね！</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_happy_lv3&gt;&lt;end_attr&gt;Hee hee! KA-POW!!
+&lt;br&gt;
+That's my all-time favorite greeting. It's cute!
+It's elegant! It's powerful! Nothing else can
+compare!</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_think_lv2&gt;&lt;end_attr&gt;「あれ？　そういや　またまた　クーにご用？
+　もしかして　プレゼントのおかわり　ほしいの？
+&lt;br&gt;
+「むむう。プレゼントは　１回だけだよ！
+　また来月になったら　どこかに見参するから
+　そのとき　会いにきてね！</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_think_lv2&gt;&lt;end_attr&gt;Huh? What's that? You still
+need me for something?
+What? You want ANOTHER present?
+&lt;br&gt;
+Hmm...sorry, but I can only give you one!
+Come back next month and I can give you
+another!</t>
+  </si>
+  <si>
+    <t>「今あげた　プレゼントチケットは
+　オルフェアの町の　交換屋メリーポコに渡すと
+　いろいろなモノと　交換してもらえるよ！&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take that ticket to Meripoko in Orphea. She'll
+exchange it for all sorts of neat stuff! She's
+in the center of town near the fountain!&lt;bw_break&gt;
+</t>
+  </si>
+  <si>
+    <t>クリアしました！&lt;update_quedate&gt;&lt;open_irai&gt;</t>
+  </si>
+  <si>
+    <t>Success! The quest has been transgressed
+with finesse!&lt;update_quedate&gt;&lt;open_irai&gt;</t>
+  </si>
+  <si>
+    <t>Quest clear (BAD STRING)</t>
+  </si>
+  <si>
+    <t>クリアしました！
+&lt;update_quedate&gt;&lt;open_irai&gt;</t>
+  </si>
+  <si>
     <t>メインコマンド『せんれき』の
 これまでのおはなしを見ながら
 物語を進めていこう。</t>
@@ -14423,6 +15725,23 @@
     <t>Prepare for new adventures.
 Talk to an Introducer at the
 tavern in any town.</t>
+  </si>
+  <si>
+    <t>港町レンドア南で　詩人ナスガルドから
+ベジセルクの戦詩を紡ぐ　舞台作りに必要な
+戦いのルールを聞いて　理解した。
+そして　しぐさ『ガッツポーズ』をして
+勝利を誓うように　言われた。</t>
+  </si>
+  <si>
+    <t>In South Port Lendor, Poet Woebergard
+explained the rules of warfare necessary to
+set the stage for the War Poem of
+Cucumberserk. You were then told to use the
+emote "Guts Pose" and pledge victory.</t>
+  </si>
+  <si>
+    <t>Quest 440 description</t>
   </si>
 </sst>
 </file>
@@ -14525,6 +15844,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -19829,249 +21152,249 @@
         <v>1061</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D469" s="2" t="s">
         <v>1065</v>
-      </c>
-      <c r="C469" s="7" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D469" s="2" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
         <v>1068</v>
       </c>
-      <c r="C470" s="7" t="s">
+      <c r="C470" s="2" t="s">
         <v>1069</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C471" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="C471" s="7" t="s">
-        <v>1072</v>
-      </c>
       <c r="D471" s="2" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C472" s="7" t="s">
-        <v>1075</v>
+        <v>1072</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>1073</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>1076</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C473" s="7" t="s">
-        <v>1078</v>
+        <v>1074</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>1075</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C474" s="7" t="s">
-        <v>1081</v>
+        <v>1076</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C475" s="7" t="s">
-        <v>1083</v>
+        <v>1078</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>1079</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>1084</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C476" s="7" t="s">
-        <v>1086</v>
+        <v>1080</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>1081</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C477" s="7" t="s">
-        <v>1088</v>
+        <v>1082</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>1083</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C478" s="7" t="s">
-        <v>1090</v>
+        <v>1084</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>1085</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>1091</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C479" s="7" t="s">
-        <v>1093</v>
+        <v>1086</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>1087</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>1094</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C480" s="7" t="s">
-        <v>1096</v>
+        <v>1088</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>1089</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>1091</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C481" s="7" t="s">
-        <v>1098</v>
+        <v>1090</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>1091</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C482" s="7" t="s">
-        <v>1100</v>
+        <v>1092</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>1093</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C483" s="7" t="s">
-        <v>1102</v>
+        <v>1095</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>1096</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C484" s="7" t="s">
-        <v>1104</v>
+        <v>1097</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>1098</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="C485" s="7" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>1091</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="C486" s="7" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>1091</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="C487" s="7" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>1091</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C488" s="7" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D488" s="2" t="s">
         <v>1111</v>
-      </c>
-      <c r="C488" s="7" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D488" s="2" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C489" s="7" t="s">
         <v>1113</v>
       </c>
-      <c r="C489" s="7" t="s">
+      <c r="D489" s="2" t="s">
         <v>1114</v>
-      </c>
-      <c r="D489" s="2" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="490">
@@ -20082,7 +21405,7 @@
         <v>1116</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>1091</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="491">
@@ -20093,29 +21416,29 @@
         <v>1118</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>1091</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C492" s="7" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>1091</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C493" s="7" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="494">
@@ -20126,40 +21449,40 @@
         <v>1125</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C495" s="7" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C496" s="7" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C497" s="7" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="498">
@@ -20170,7 +21493,7 @@
         <v>1135</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="499">
@@ -20181,7 +21504,7 @@
         <v>1137</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="500">
@@ -20192,7 +21515,7 @@
         <v>1139</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="501">
@@ -20203,7 +21526,7 @@
         <v>1141</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="502">
@@ -20214,7 +21537,7 @@
         <v>1143</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="503">
@@ -20225,7 +21548,7 @@
         <v>1145</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="504">
@@ -20236,7 +21559,7 @@
         <v>1147</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="505">
@@ -20247,7 +21570,7 @@
         <v>1149</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="506">
@@ -20258,81 +21581,81 @@
         <v>1151</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>1152</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C507" s="7" t="s">
         <v>1153</v>
       </c>
-      <c r="C507" s="7" t="s">
-        <v>1154</v>
-      </c>
       <c r="D507" s="2" t="s">
-        <v>1155</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C508" s="7" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>1155</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C509" s="7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D509" s="2" t="s">
         <v>1158</v>
-      </c>
-      <c r="C509" s="7" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D509" s="2" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C510" s="7" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="C511" s="7" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C512" s="7" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C513" s="7" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="D513" s="2" t="s">
         <v>1168</v>
@@ -20340,186 +21663,186 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="C514" s="7" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>1173</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C515" s="7" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C516" s="7" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="C517" s="7" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>1181</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="C518" s="7" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>1181</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="C519" s="7" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>1181</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="C520" s="7" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="C521" s="7" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>1181</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="C522" s="7" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>1181</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="C523" s="7" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>1181</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="C524" s="7" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="C525" s="7" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="C526" s="7" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C527" s="7" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="C528" s="7" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>1199</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C529" s="7" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="C530" s="7" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="D530" s="2" t="s">
         <v>1208</v>
@@ -20527,123 +21850,123 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C531" s="7" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D531" s="2" t="s">
         <v>1211</v>
-      </c>
-      <c r="C531" s="7" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D531" s="2" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C532" s="7" t="s">
         <v>1213</v>
       </c>
-      <c r="C532" s="7" t="s">
-        <v>1214</v>
-      </c>
       <c r="D532" s="2" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C533" s="7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D533" s="2" t="s">
         <v>1216</v>
-      </c>
-      <c r="C533" s="7" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D533" s="2" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C534" s="7" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C537" s="7" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C538" s="7" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C539" s="7" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C540" s="7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D540" s="2" t="s">
         <v>1231</v>
-      </c>
-      <c r="C540" s="7" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D540" s="2" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C541" s="7" t="s">
         <v>1233</v>
       </c>
-      <c r="C541" s="7" t="s">
+      <c r="D541" s="2" t="s">
         <v>1234</v>
-      </c>
-      <c r="D541" s="2" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="542">
@@ -20654,7 +21977,7 @@
         <v>1236</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>1215</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="543">
@@ -20665,7 +21988,7 @@
         <v>1238</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>1215</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="544">
@@ -20676,7 +21999,7 @@
         <v>1240</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>1215</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="545">
@@ -20698,227 +22021,227 @@
         <v>1245</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C547" s="7" t="s">
         <v>1247</v>
       </c>
-      <c r="C547" s="7" t="s">
-        <v>1248</v>
-      </c>
       <c r="D547" s="2" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C548" s="7" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D548" s="2" t="s">
         <v>1250</v>
-      </c>
-      <c r="C548" s="7" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D548" s="2" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C549" s="7" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D549" s="2" t="s">
         <v>1253</v>
-      </c>
-      <c r="C549" s="7" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D549" s="2" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C551" s="7" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C552" s="7" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C553" s="7" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C555" s="7" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="C556" s="7" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C557" s="7" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>130</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="C558" s="7" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>130</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="C559" s="7" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>1277</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>1277</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="C561" s="7" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="C562" s="7" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="C563" s="7" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>1258</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="C564" s="7" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>1258</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C565" s="7" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D565" s="2" t="s">
         <v>1290</v>
-      </c>
-      <c r="C565" s="7" t="s">
-        <v>1291</v>
-      </c>
-      <c r="D565" s="2" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C566" s="7" t="s">
         <v>1292</v>
       </c>
-      <c r="C566" s="7" t="s">
+      <c r="D566" s="2" t="s">
         <v>1293</v>
-      </c>
-      <c r="D566" s="2" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="567">
@@ -20929,7 +22252,7 @@
         <v>1295</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>1258</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="568">
@@ -20940,7 +22263,7 @@
         <v>1297</v>
       </c>
       <c r="D568" s="2" t="s">
-        <v>1258</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="569">
@@ -20951,7 +22274,7 @@
         <v>1299</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>1258</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="570">
@@ -20962,81 +22285,81 @@
         <v>1301</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C571" s="7" t="s">
         <v>1303</v>
       </c>
-      <c r="C571" s="7" t="s">
-        <v>1304</v>
-      </c>
       <c r="D571" s="2" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C572" s="7" t="s">
         <v>1305</v>
       </c>
-      <c r="C572" s="7" t="s">
-        <v>1306</v>
-      </c>
       <c r="D572" s="2" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C573" s="7" t="s">
         <v>1307</v>
       </c>
-      <c r="C573" s="7" t="s">
-        <v>1308</v>
-      </c>
       <c r="D573" s="2" t="s">
-        <v>1309</v>
+        <v>130</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C574" s="7" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>1302</v>
+        <v>130</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C575" s="7" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D575" s="2" t="s">
         <v>1312</v>
-      </c>
-      <c r="C575" s="7" t="s">
-        <v>1313</v>
-      </c>
-      <c r="D575" s="2" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C576" s="7" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="D576" s="2" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="C577" s="7" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="D577" s="2" t="s">
         <v>1317</v>
@@ -21044,101 +22367,101 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C578" s="7" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D578" s="2" t="s">
         <v>1320</v>
-      </c>
-      <c r="C578" s="7" t="s">
-        <v>1321</v>
-      </c>
-      <c r="D578" s="2" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C579" s="7" t="s">
         <v>1322</v>
       </c>
-      <c r="C579" s="7" t="s">
-        <v>1323</v>
-      </c>
       <c r="D579" s="2" t="s">
-        <v>1317</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C580" s="7" t="s">
         <v>1324</v>
       </c>
-      <c r="C580" s="7" t="s">
-        <v>1325</v>
-      </c>
       <c r="D580" s="2" t="s">
-        <v>1317</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C581" s="7" t="s">
         <v>1326</v>
       </c>
-      <c r="C581" s="7" t="s">
-        <v>1327</v>
-      </c>
       <c r="D581" s="2" t="s">
-        <v>1317</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C582" s="7" t="s">
         <v>1328</v>
       </c>
-      <c r="C582" s="7" t="s">
-        <v>1329</v>
-      </c>
       <c r="D582" s="2" t="s">
-        <v>1317</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C583" s="7" t="s">
         <v>1330</v>
       </c>
-      <c r="C583" s="7" t="s">
-        <v>1331</v>
-      </c>
       <c r="D583" s="2" t="s">
-        <v>1317</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C584" s="7" t="s">
         <v>1332</v>
       </c>
-      <c r="C584" s="7" t="s">
-        <v>1333</v>
-      </c>
       <c r="D584" s="2" t="s">
-        <v>1317</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C585" s="7" t="s">
         <v>1334</v>
       </c>
-      <c r="C585" s="7" t="s">
-        <v>1335</v>
-      </c>
       <c r="D585" s="2" t="s">
-        <v>1317</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C586" s="7" t="s">
         <v>1336</v>
       </c>
-      <c r="C586" s="7" t="s">
+      <c r="D586" s="2" t="s">
         <v>1337</v>
-      </c>
-      <c r="D586" s="2" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="587">
@@ -21149,7 +22472,7 @@
         <v>1339</v>
       </c>
       <c r="D587" s="2" t="s">
-        <v>1317</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="588">
@@ -21160,51 +22483,51 @@
         <v>1341</v>
       </c>
       <c r="D588" s="2" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C589" s="7" t="s">
         <v>1343</v>
       </c>
-      <c r="C589" s="7" t="s">
+      <c r="D589" s="2" t="s">
         <v>1344</v>
-      </c>
-      <c r="D589" s="2" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C590" s="7" t="s">
         <v>1346</v>
       </c>
-      <c r="C590" s="7" t="s">
-        <v>1347</v>
-      </c>
       <c r="D590" s="2" t="s">
-        <v>1348</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C591" s="7" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D591" s="2" t="s">
         <v>1349</v>
-      </c>
-      <c r="C591" s="7" t="s">
-        <v>1350</v>
-      </c>
-      <c r="D591" s="2" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C592" s="7" t="s">
         <v>1351</v>
       </c>
-      <c r="C592" s="7" t="s">
+      <c r="D592" s="2" t="s">
         <v>1352</v>
-      </c>
-      <c r="D592" s="2" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="593">
@@ -21215,7 +22538,7 @@
         <v>1354</v>
       </c>
       <c r="D593" s="2" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="594">
@@ -21226,7 +22549,7 @@
         <v>1356</v>
       </c>
       <c r="D594" s="2" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="595">
@@ -21237,291 +22560,293 @@
         <v>1358</v>
       </c>
       <c r="D595" s="2" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C596" s="7" t="s">
         <v>1360</v>
       </c>
-      <c r="C596" s="7" t="s">
-        <v>1361</v>
-      </c>
       <c r="D596" s="2" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C597" s="7" t="s">
         <v>1362</v>
       </c>
-      <c r="C597" s="7" t="s">
-        <v>1363</v>
-      </c>
       <c r="D597" s="2" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C598" s="7" t="s">
         <v>1364</v>
       </c>
-      <c r="C598" s="7" t="s">
-        <v>1365</v>
-      </c>
       <c r="D598" s="2" t="s">
-        <v>1366</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C599" s="7" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="D599" s="2" t="s">
-        <v>1369</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="C600" s="7" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="D600" s="2" t="s">
-        <v>1372</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="C601" s="7" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="D601" s="2" t="s">
-        <v>1372</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="C602" s="7" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>1377</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="C603" s="7" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="D603" s="2" t="s">
-        <v>1380</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="C604" s="7" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="D604" s="2" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="C605" s="7" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="D605" s="2" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="C606" s="7" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="D606" s="2" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="C607" s="7" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="D607" s="2" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="C608" s="7" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="D608" s="2" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="C609" s="7" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="D609" s="2" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="C610" s="7" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>1397</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="C611" s="7" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>529</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="C612" s="7" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>1402</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="C613" s="7" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>1405</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="s">
-        <v>1406</v>
+        <v>1399</v>
       </c>
       <c r="C614" s="7" t="s">
-        <v>1407</v>
+        <v>1400</v>
       </c>
       <c r="D614" s="2" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="C615" s="7" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="D615" s="2" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="C616" s="7" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>1402</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C617" s="7" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>1402</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="C618" s="7" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D618" s="2"/>
+        <v>1411</v>
+      </c>
+      <c r="D618" s="2" t="s">
+        <v>1412</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="C619" s="7" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="D619" s="2" t="s">
-        <v>1402</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C620" s="7" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D620" s="2" t="s">
         <v>1418</v>
-      </c>
-      <c r="C620" s="7" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D620" s="2" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C621" s="7" t="s">
         <v>1420</v>
       </c>
-      <c r="C621" s="7" t="s">
+      <c r="D621" s="2" t="s">
         <v>1421</v>
-      </c>
-      <c r="D621" s="2" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="622">
@@ -21532,7 +22857,7 @@
         <v>1423</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>1405</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="623">
@@ -21543,7 +22868,7 @@
         <v>1425</v>
       </c>
       <c r="D623" s="2" t="s">
-        <v>1405</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="624">
@@ -21554,7 +22879,7 @@
         <v>1427</v>
       </c>
       <c r="D624" s="2" t="s">
-        <v>1405</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="625">
@@ -21565,7 +22890,7 @@
         <v>1429</v>
       </c>
       <c r="D625" s="2" t="s">
-        <v>1402</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="626">
@@ -21576,1129 +22901,1985 @@
         <v>1431</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>1402</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="C627" s="7" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D627" s="2" t="s">
-        <v>1402</v>
+        <v>529</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="C628" s="7" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="D628" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="C629" s="7" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="D629" s="2" t="s">
-        <v>1402</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="C630" s="7" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="D630" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="C631" s="7" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="D631" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="C632" s="7" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="C633" s="7" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="D633" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="C634" s="7" t="s">
-        <v>1447</v>
-      </c>
-      <c r="D634" s="2" t="s">
-        <v>1402</v>
-      </c>
+        <v>1450</v>
+      </c>
+      <c r="D634" s="2"/>
     </row>
     <row r="635">
       <c r="A635" s="2" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="C635" s="7" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="D635" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="C636" s="7" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="D636" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="C637" s="7" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="D637" s="2" t="s">
-        <v>1402</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="C638" s="7" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>1456</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="C639" s="7" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="D639" s="2" t="s">
-        <v>1456</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="C640" s="7" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="D640" s="2" t="s">
-        <v>1456</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="C641" s="7" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="D641" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="C642" s="7" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="D642" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="C643" s="7" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="C644" s="7" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="D644" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="2" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="C645" s="7" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="D645" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="C646" s="7" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="D646" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="C647" s="7" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="C648" s="7" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="C649" s="7" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="D649" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="C650" s="7" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="D650" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="C651" s="7" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="D651" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="C652" s="7" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="D652" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="2" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="C653" s="7" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="D653" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="2" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="C654" s="7" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="D654" s="2" t="s">
-        <v>1402</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="2" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="C655" s="7" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="D655" s="2" t="s">
-        <v>1402</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C656" s="7" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D656" s="2" t="s">
         <v>1491</v>
-      </c>
-      <c r="C656" s="7" t="s">
-        <v>1492</v>
-      </c>
-      <c r="D656" s="2" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="C657" s="7" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="D657" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="2" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="C658" s="7" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="C659" s="7" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="C660" s="7" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="C661" s="7" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="D661" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="C662" s="7" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="D662" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="2" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="C663" s="7" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="D663" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="C664" s="7" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="D664" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="C665" s="7" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="D665" s="2" t="s">
-        <v>1405</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="C666" s="7" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>1405</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="C667" s="7" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>1405</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="C668" s="7" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>1405</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="C669" s="7" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="C670" s="7" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="D670" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="C671" s="7" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="D671" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="C672" s="7" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="2" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="C673" s="7" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="D673" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="C674" s="7" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="D674" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="C675" s="7" t="s">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="D675" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="C676" s="7" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
       <c r="D676" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="2" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="C677" s="7" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="D677" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="2" t="s">
-        <v>1535</v>
+        <v>1538</v>
       </c>
       <c r="C678" s="7" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="D678" s="2" t="s">
-        <v>1405</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="2" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="C679" s="7" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="C680" s="7" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="D680" s="2" t="s">
-        <v>1405</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="2" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="C681" s="7" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="D681" s="2" t="s">
-        <v>1402</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="2" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="C682" s="7" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="D682" s="2" t="s">
-        <v>1402</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="2" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="C683" s="7" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="D683" s="2" t="s">
-        <v>1402</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="C684" s="7" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="D684" s="2" t="s">
-        <v>1405</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="2" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="C685" s="7" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="D685" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="C686" s="7" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="D686" s="2" t="s">
-        <v>1405</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="2" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="C687" s="7" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="D687" s="2" t="s">
-        <v>1405</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="C688" s="7" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="D688" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="C689" s="7" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="D689" s="2" t="s">
-        <v>1405</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="C690" s="7" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="D690" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="2" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="C691" s="7" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="D691" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="2" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="C692" s="7" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="D692" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="s">
-        <v>1565</v>
+        <v>1568</v>
       </c>
       <c r="C693" s="7" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
       <c r="D693" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="C694" s="7" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
       <c r="D694" s="2" t="s">
-        <v>1402</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="C695" s="7" t="s">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="D695" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="C696" s="7" t="s">
-        <v>1572</v>
+        <v>1575</v>
       </c>
       <c r="D696" s="2" t="s">
-        <v>1402</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="2" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="C697" s="7" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="D697" s="2" t="s">
-        <v>1405</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="C698" s="7" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="D698" s="2" t="s">
-        <v>1405</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="2" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="C699" s="7" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="D699" s="2" t="s">
-        <v>1405</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="s">
-        <v>1579</v>
+        <v>1582</v>
       </c>
       <c r="C700" s="7" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
       <c r="D700" s="2" t="s">
-        <v>1405</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="2" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="C701" s="7" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="D701" s="2" t="s">
-        <v>1405</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="2" t="s">
-        <v>1583</v>
+        <v>1586</v>
       </c>
       <c r="C702" s="7" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="D702" s="2" t="s">
-        <v>1405</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="C703" s="7" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="D703" s="2" t="s">
-        <v>1405</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="2" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="C704" s="7" t="s">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="D704" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="2" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="C705" s="7" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="D705" s="2" t="s">
-        <v>1402</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="s">
-        <v>1591</v>
+        <v>1594</v>
       </c>
       <c r="C706" s="7" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="D706" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="2" t="s">
-        <v>1593</v>
+        <v>1596</v>
       </c>
       <c r="C707" s="7" t="s">
-        <v>1594</v>
+        <v>1597</v>
       </c>
       <c r="D707" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="C708" s="7" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
       <c r="D708" s="2" t="s">
-        <v>1405</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="s">
-        <v>1597</v>
+        <v>1600</v>
       </c>
       <c r="C709" s="7" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="D709" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="C710" s="7" t="s">
-        <v>1600</v>
+        <v>1603</v>
       </c>
       <c r="D710" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="s">
-        <v>1601</v>
+        <v>1604</v>
       </c>
       <c r="C711" s="7" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="D711" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="2" t="s">
-        <v>1603</v>
+        <v>1606</v>
       </c>
       <c r="C712" s="7" t="s">
-        <v>1604</v>
+        <v>1607</v>
       </c>
       <c r="D712" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="s">
-        <v>1605</v>
+        <v>1608</v>
       </c>
       <c r="C713" s="7" t="s">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="D713" s="2" t="s">
-        <v>1402</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="C714" s="7" t="s">
-        <v>1608</v>
+        <v>1611</v>
       </c>
       <c r="D714" s="2" t="s">
-        <v>1402</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="s">
-        <v>1609</v>
+        <v>1612</v>
       </c>
       <c r="C715" s="7" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="D715" s="2" t="s">
-        <v>1405</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="2" t="s">
-        <v>1611</v>
+        <v>1614</v>
       </c>
       <c r="C716" s="7" t="s">
-        <v>1612</v>
+        <v>1615</v>
       </c>
       <c r="D716" s="2" t="s">
-        <v>1402</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="s">
-        <v>1613</v>
+        <v>1616</v>
       </c>
       <c r="C717" s="7" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="D717" s="2" t="s">
-        <v>1402</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
       <c r="C718" s="7" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
       <c r="D718" s="2" t="s">
-        <v>1402</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="2" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
       <c r="C719" s="7" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
       <c r="D719" s="2" t="s">
-        <v>1402</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="s">
-        <v>1619</v>
+        <v>1622</v>
       </c>
       <c r="C720" s="7" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
       <c r="D720" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="2" t="s">
-        <v>1621</v>
+        <v>1624</v>
       </c>
       <c r="C721" s="7" t="s">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="D721" s="2" t="s">
-        <v>1405</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="2" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="C722" s="7" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="D722" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="2" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="C723" s="7" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="D723" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
       <c r="C724" s="7" t="s">
-        <v>1628</v>
+        <v>1631</v>
       </c>
       <c r="D724" s="2" t="s">
-        <v>1402</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
       <c r="C725" s="7" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="D725" s="2" t="s">
-        <v>1405</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="2" t="s">
-        <v>1631</v>
+        <v>1634</v>
       </c>
       <c r="C726" s="7" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="D726" s="2" t="s">
-        <v>1402</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="2" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="C727" s="7" t="s">
-        <v>1634</v>
+        <v>1637</v>
       </c>
       <c r="D727" s="2" t="s">
-        <v>1405</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="2" t="s">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="C728" s="7" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
       <c r="D728" s="2" t="s">
-        <v>1637</v>
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C729" s="7" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D729" s="2" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C730" s="7" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D730" s="2" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C731" s="7" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D731" s="2" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C732" s="7" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D732" s="2" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C733" s="7" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D733" s="2" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C734" s="7" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D734" s="2" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C735" s="7" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D735" s="2" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C736" s="7" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D736" s="2" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C737" s="7" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D737" s="2" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="2" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C738" s="7" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D738" s="2" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C739" s="7" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D739" s="2" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C740" s="7" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D740" s="2" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C741" s="7" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D741" s="2" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C742" s="7" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D742" s="2" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C743" s="7" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D743" s="2" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C744" s="7" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D744" s="2" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C745" s="7" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D745" s="2" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C746" s="7" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D746" s="2" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C747" s="7" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D747" s="2" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C748" s="7" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D748" s="2" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C749" s="7" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D749" s="2" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C750" s="7" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D750" s="2" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="2" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C751" s="7" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D751" s="2" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C752" s="7" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D752" s="2" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C753" s="7" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D753" s="2" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C754" s="7" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D754" s="2" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C755" s="7" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D755" s="2" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C756" s="7" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D756" s="2" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="2" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C757" s="7" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D757" s="2" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C758" s="7" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D758" s="2" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C759" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D759" s="2" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="2" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C760" s="7" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D760" s="2" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C761" s="7" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D761" s="2" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C762" s="7" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D762" s="2" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C763" s="7" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D763" s="2" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C764" s="7" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D764" s="2" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C765" s="7" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D765" s="2" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="2" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C766" s="7" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D766" s="2" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C767" s="7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D767" s="2" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="2" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C768" s="7" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D768" s="2" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="2" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C769" s="7" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D769" s="2" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="2" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C770" s="7" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D770" s="2" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="2" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C771" s="7" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D771" s="2" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C772" s="7" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D772" s="2" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="2" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C773" s="7" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D773" s="2" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="2" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C774" s="7" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D774" s="2" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C775" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D775" s="2" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C776" s="7" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D776" s="2" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C777" s="7" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D777" s="2" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C778" s="7" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D778" s="2" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C779" s="7" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D779" s="2" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C780" s="7" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D780" s="2" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C781" s="7" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D781" s="2" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C782" s="7" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D782" s="2" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C783" s="7" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D783" s="2" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C784" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D784" s="2" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C785" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D785" s="2" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C786" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D786" s="2" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C787" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D787" s="2" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C788" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D788" s="2" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C789" s="7" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D789" s="2" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C790" s="7" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D790" s="2" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="2" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C791" s="7" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D791" s="2" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="2" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C792" s="7" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D792" s="2" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C793" s="7" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D793" s="2" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="2" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C794" s="7" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D794" s="2" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C795" s="7" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D795" s="2" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="2" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C796" s="7" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D796" s="2" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="2" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C797" s="7" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D797" s="2" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="2" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C798" s="7" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D798" s="2" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="2" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C799" s="7" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D799" s="2" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="2" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C800" s="7" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D800" s="2" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C801" s="7" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D801" s="2" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="2" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C802" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D802" s="2" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="2" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C803" s="7" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D803" s="2" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="2" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C804" s="7" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D804" s="2" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="2" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C805" s="7" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D805" s="2" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="2" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C806" s="7" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D806" s="2" t="s">
+        <v>1810</v>
       </c>
     </row>
   </sheetData>
@@ -22737,18 +24918,64 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1638</v>
+        <v>1812</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1639</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1640</v>
+        <v>1814</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1641</v>
+        <v>1815</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="37.13"/>
+    <col customWidth="1" min="2" max="2" width="13.88"/>
+    <col customWidth="1" min="3" max="3" width="46.63"/>
+    <col customWidth="1" min="4" max="4" width="27.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1818</v>
       </c>
     </row>
   </sheetData>
